--- a/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="129">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,102 +49,93 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>forced</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>fake</t>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>fuck</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>die</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>isolation</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>isolation</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -160,165 +151,171 @@
     <t>beauty</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>healthy</t>
   </si>
   <si>
     <t>creative</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>friends</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>boost</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>credit</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>funny</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>worth</t>
   </si>
   <si>
-    <t>dear</t>
-  </si>
-  <si>
     <t>ready</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>save</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>gt</t>
   </si>
   <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>hope</t>
+    <t>key</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
@@ -328,61 +325,79 @@
     <t>increased</t>
   </si>
   <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>stores</t>
+    <t>new</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>social</t>
   </si>
   <si>
     <t>stock</t>
   </si>
   <si>
-    <t>social</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>supermarket</t>
+    <t>san</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -743,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q80"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -751,10 +766,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -833,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -883,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -912,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -930,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K5">
-        <v>0.9696969696969697</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L5">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -962,13 +977,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8076923076923077</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -980,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K6">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1004,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1012,13 +1027,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.76</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1033,16 +1048,16 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K7">
-        <v>0.9615384615384616</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1062,13 +1077,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1080,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K8">
-        <v>0.9545454545454546</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L8">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="M8">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1104,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1112,13 +1127,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7294520547945206</v>
+        <v>0.75</v>
       </c>
       <c r="C9">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1130,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K9">
-        <v>0.9473684210526315</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1154,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1162,13 +1177,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1180,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K10">
-        <v>0.8913043478260869</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M10">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1204,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1212,13 +1227,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1230,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1262,13 +1277,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6842105263157895</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1280,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K12">
-        <v>0.8666666666666667</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1304,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1312,37 +1327,37 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6153846153846154</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="C13">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>16</v>
       </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K13">
-        <v>0.8660714285714286</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1354,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1362,49 +1377,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5909090909090909</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C14">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>14</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K14">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L14">
+        <v>69</v>
+      </c>
+      <c r="M14">
+        <v>69</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
-      </c>
-      <c r="D14">
-        <v>13</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>9</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14">
-        <v>0.8611111111111112</v>
-      </c>
-      <c r="L14">
-        <v>31</v>
-      </c>
-      <c r="M14">
-        <v>31</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1412,13 +1427,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5789473684210527</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1430,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K15">
-        <v>0.8292682926829268</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L15">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="M15">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1454,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1462,13 +1477,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1480,31 +1495,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K16">
-        <v>0.8148148148148148</v>
+        <v>0.8166666666666667</v>
       </c>
       <c r="L16">
+        <v>98</v>
+      </c>
+      <c r="M16">
+        <v>98</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>22</v>
-      </c>
-      <c r="M16">
-        <v>22</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1512,38 +1527,38 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5641025641025641</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C17">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L17">
         <v>22</v>
       </c>
-      <c r="D17">
+      <c r="M17">
         <v>22</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>17</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K17">
-        <v>0.8125</v>
-      </c>
-      <c r="L17">
-        <v>13</v>
-      </c>
-      <c r="M17">
-        <v>13</v>
-      </c>
       <c r="N17">
         <v>1</v>
       </c>
@@ -1554,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1562,13 +1577,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1580,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>15</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K18">
+        <v>0.8125</v>
+      </c>
+      <c r="L18">
         <v>13</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K18">
-        <v>0.8103448275862069</v>
-      </c>
-      <c r="L18">
-        <v>47</v>
-      </c>
       <c r="M18">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1604,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1612,13 +1627,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1630,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.8046875</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L19">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="M19">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1654,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1662,13 +1677,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4838709677419355</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1680,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K20">
-        <v>0.803921568627451</v>
+        <v>0.8046875</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1704,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1712,13 +1727,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4594594594594595</v>
+        <v>0.3758389261744967</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1730,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K21">
-        <v>0.8</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="L21">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1754,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>24</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1762,13 +1777,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4333333333333333</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1780,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K22">
-        <v>0.7872340425531915</v>
+        <v>0.795774647887324</v>
       </c>
       <c r="L22">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="M22">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1804,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1812,13 +1827,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4193548387096774</v>
+        <v>0.3546511627906977</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>183</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1830,19 +1845,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>18</v>
+        <v>333</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K23">
-        <v>0.7857142857142857</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1854,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1862,13 +1877,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.3513513513513514</v>
       </c>
       <c r="C24">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1880,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K24">
-        <v>0.7735849056603774</v>
+        <v>0.75</v>
       </c>
       <c r="L24">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="M24">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1904,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1912,13 +1927,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3888888888888889</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1930,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>0.7676056338028169</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L25">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1954,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1962,13 +1977,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3846153846153846</v>
+        <v>0.325</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1980,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K26">
-        <v>0.75</v>
+        <v>0.74375</v>
       </c>
       <c r="L26">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="M26">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2004,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2012,13 +2027,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3758389261744967</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="C27">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2030,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K27">
-        <v>0.74375</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L27">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2054,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2062,13 +2077,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3604651162790697</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C28">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2080,19 +2095,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K28">
-        <v>0.7391304347826086</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2104,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2112,13 +2127,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3559322033898305</v>
+        <v>0.3137254901960784</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D29">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2130,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K29">
-        <v>0.7301587301587301</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L29">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2154,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2162,13 +2177,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3376623376623377</v>
+        <v>0.3121693121693122</v>
       </c>
       <c r="C30">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2180,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K30">
-        <v>0.7222222222222222</v>
+        <v>0.6764705882352942</v>
       </c>
       <c r="L30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2204,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2212,13 +2227,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3333333333333333</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C31">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="D31">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2230,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K31">
-        <v>0.6914893617021277</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2254,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2262,7 +2277,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2941176470588235</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C32">
         <v>15</v>
@@ -2280,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K32">
         <v>0.6458333333333334</v>
@@ -2312,13 +2327,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2941176470588235</v>
+        <v>0.2333333333333333</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2330,19 +2345,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K33">
-        <v>0.6176470588235294</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2354,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2362,13 +2377,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2666666666666667</v>
+        <v>0.2125</v>
       </c>
       <c r="C34">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D34">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2380,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K34">
-        <v>0.6129032258064516</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2404,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>12</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2412,13 +2427,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2545454545454545</v>
+        <v>0.1984126984126984</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="D35">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2430,19 +2445,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K35">
-        <v>0.6057441253263708</v>
+        <v>0.6161879895561357</v>
       </c>
       <c r="L35">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M35">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2454,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2462,213 +2477,141 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.25</v>
+        <v>0.1152815013404826</v>
       </c>
       <c r="C36">
+        <v>43</v>
+      </c>
+      <c r="D36">
+        <v>43</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>330</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K36">
+        <v>0.6</v>
+      </c>
+      <c r="L36">
+        <v>30</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>20</v>
       </c>
-      <c r="D36">
-        <v>20</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>60</v>
-      </c>
-      <c r="J36" s="1" t="s">
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K37">
+        <v>0.5813953488372093</v>
+      </c>
+      <c r="L37">
+        <v>25</v>
+      </c>
+      <c r="M37">
+        <v>25</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K38">
+        <v>0.5764705882352941</v>
+      </c>
+      <c r="L38">
+        <v>196</v>
+      </c>
+      <c r="M38">
+        <v>196</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="J39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="K36">
-        <v>0.5852941176470589</v>
-      </c>
-      <c r="L36">
-        <v>199</v>
-      </c>
-      <c r="M36">
-        <v>199</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.2372881355932203</v>
-      </c>
-      <c r="C37">
+      <c r="K39">
+        <v>0.5757575757575758</v>
+      </c>
+      <c r="L39">
+        <v>19</v>
+      </c>
+      <c r="M39">
+        <v>19</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
         <v>14</v>
-      </c>
-      <c r="D37">
-        <v>14</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>45</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K37">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L37">
-        <v>14</v>
-      </c>
-      <c r="M37">
-        <v>14</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="A38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>0.1984126984126984</v>
-      </c>
-      <c r="C38">
-        <v>50</v>
-      </c>
-      <c r="D38">
-        <v>50</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>202</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K38">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L38">
-        <v>16</v>
-      </c>
-      <c r="M38">
-        <v>16</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0.1233243967828418</v>
-      </c>
-      <c r="C39">
-        <v>46</v>
-      </c>
-      <c r="D39">
-        <v>46</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>327</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K39">
-        <v>0.5714285714285714</v>
-      </c>
-      <c r="L39">
-        <v>16</v>
-      </c>
-      <c r="M39">
-        <v>16</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K40">
-        <v>0.5581395348837209</v>
+        <v>0.575</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2680,21 +2623,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K41">
-        <v>0.5559322033898305</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L41">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2706,21 +2649,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>131</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K42">
-        <v>0.5555555555555556</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="L42">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2732,21 +2675,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K43">
-        <v>0.550561797752809</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L43">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M43">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2758,21 +2701,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K44">
-        <v>0.55</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L44">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2784,21 +2727,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K45">
-        <v>0.5454545454545454</v>
+        <v>0.5254237288135594</v>
       </c>
       <c r="L45">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2810,21 +2753,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K46">
-        <v>0.54</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2836,21 +2779,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.5188284518828452</v>
+        <v>0.5104602510460251</v>
       </c>
       <c r="L47">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M47">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2862,21 +2805,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K48">
-        <v>0.475</v>
+        <v>0.5</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2893,16 +2836,16 @@
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K49">
-        <v>0.4743589743589743</v>
+        <v>0.5</v>
       </c>
       <c r="L49">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2914,21 +2857,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K50">
-        <v>0.46875</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L50">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2940,21 +2883,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K51">
-        <v>0.4642857142857143</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2966,21 +2909,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K52">
-        <v>0.4523809523809524</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2992,21 +2935,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K53">
-        <v>0.4461538461538462</v>
+        <v>0.46875</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3018,21 +2961,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K54">
-        <v>0.4428571428571428</v>
+        <v>0.45</v>
       </c>
       <c r="L54">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3044,12 +2987,12 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K55">
         <v>0.4383561643835616</v>
@@ -3075,16 +3018,16 @@
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K56">
-        <v>0.4285714285714285</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L56">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M56">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3096,21 +3039,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K57">
-        <v>0.4042553191489361</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L57">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M57">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3122,15 +3065,15 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K58">
-        <v>0.2950819672131147</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L58">
         <v>18</v>
@@ -3148,21 +3091,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>43</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K59">
-        <v>0.2203389830508475</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="M59">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3174,47 +3117,47 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K60">
-        <v>0.1830985915492958</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L60">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N60">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O60">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>58</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K61">
-        <v>0.1196172248803828</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L61">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3226,21 +3169,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>368</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K62">
-        <v>0.1177884615384615</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L62">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="M62">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3252,21 +3195,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>367</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K63">
-        <v>0.1068702290076336</v>
+        <v>0.1894736842105263</v>
       </c>
       <c r="L63">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M63">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3278,21 +3221,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>117</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K64">
-        <v>0.103030303030303</v>
+        <v>0.1732283464566929</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3304,21 +3247,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>148</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K65">
-        <v>0.1023622047244094</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M65">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -3330,21 +3273,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>114</v>
+        <v>361</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K66">
-        <v>0.09420289855072464</v>
+        <v>0.1297709923664122</v>
       </c>
       <c r="L66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M66">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -3356,21 +3299,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K67">
-        <v>0.09202453987730061</v>
+        <v>0.125</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M67">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -3382,21 +3325,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>148</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K68">
-        <v>0.08837209302325581</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3408,47 +3351,47 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>196</v>
+        <v>145</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K69">
-        <v>0.08837209302325581</v>
+        <v>0.1136363636363636</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>196</v>
+        <v>117</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="K70">
-        <v>0.08176100628930817</v>
+        <v>0.1081730769230769</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -3460,47 +3403,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>146</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K71">
-        <v>0.07941834451901567</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="L71">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="M71">
-        <v>71</v>
+        <v>24</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>823</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="K72">
-        <v>0.07033639143730887</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="L72">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -3512,21 +3455,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>304</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K73">
-        <v>0.06521739130434782</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="L73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M73">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3538,21 +3481,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K74">
-        <v>0.05660377358490566</v>
+        <v>0.0872093023255814</v>
       </c>
       <c r="L74">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3564,21 +3507,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>850</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K75">
-        <v>0.04615384615384616</v>
+        <v>0.08165548098434004</v>
       </c>
       <c r="L75">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="M75">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3590,99 +3533,99 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>620</v>
+        <v>821</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K76">
-        <v>0.03938115330520394</v>
+        <v>0.07975460122699386</v>
       </c>
       <c r="L76">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M76">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="N76">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>2049</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K77">
-        <v>0.03695150115473441</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="L77">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M77">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="N77">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>834</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="K78">
-        <v>0.02128345694937117</v>
+        <v>0.06748466257668712</v>
       </c>
       <c r="L78">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M78">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="N78">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O78">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>3035</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="K79">
-        <v>0.01962809917355372</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="L79">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="M79">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3694,33 +3637,241 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>949</v>
+        <v>848</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K80">
+        <v>0.04545454545454546</v>
+      </c>
+      <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <v>14</v>
+      </c>
+      <c r="N80">
+        <v>1</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K81">
+        <v>0.04475308641975308</v>
+      </c>
+      <c r="L81">
+        <v>29</v>
+      </c>
+      <c r="M81">
+        <v>31</v>
+      </c>
+      <c r="N81">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O81">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K82">
+        <v>0.04041570438799076</v>
+      </c>
+      <c r="L82">
+        <v>35</v>
+      </c>
+      <c r="M82">
+        <v>36</v>
+      </c>
+      <c r="N82">
+        <v>0.97</v>
+      </c>
+      <c r="O82">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K80">
-        <v>0.009076682316118936</v>
-      </c>
-      <c r="L80">
-        <v>29</v>
-      </c>
-      <c r="M80">
+      <c r="K83">
+        <v>0.03604868913857678</v>
+      </c>
+      <c r="L83">
+        <v>77</v>
+      </c>
+      <c r="M83">
+        <v>84</v>
+      </c>
+      <c r="N83">
+        <v>0.92</v>
+      </c>
+      <c r="O83">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K84">
+        <v>0.0268041237113402</v>
+      </c>
+      <c r="L84">
+        <v>13</v>
+      </c>
+      <c r="M84">
+        <v>14</v>
+      </c>
+      <c r="N84">
+        <v>0.93</v>
+      </c>
+      <c r="O84">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K85">
+        <v>0.02292768959435626</v>
+      </c>
+      <c r="L85">
+        <v>13</v>
+      </c>
+      <c r="M85">
+        <v>13</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K86">
+        <v>0.02169421487603306</v>
+      </c>
+      <c r="L86">
+        <v>21</v>
+      </c>
+      <c r="M86">
+        <v>21</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K87">
+        <v>0.01936733376371853</v>
+      </c>
+      <c r="L87">
+        <v>60</v>
+      </c>
+      <c r="M87">
+        <v>69</v>
+      </c>
+      <c r="N87">
+        <v>0.87</v>
+      </c>
+      <c r="O87">
+        <v>0.13</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K88">
+        <v>0.01096491228070175</v>
+      </c>
+      <c r="L88">
         <v>35</v>
       </c>
-      <c r="N80">
-        <v>0.83</v>
-      </c>
-      <c r="O80">
-        <v>0.17</v>
-      </c>
-      <c r="P80" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q80">
-        <v>3166</v>
+      <c r="M88">
+        <v>44</v>
+      </c>
+      <c r="N88">
+        <v>0.8</v>
+      </c>
+      <c r="O88">
+        <v>0.2</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>3157</v>
       </c>
     </row>
   </sheetData>
